--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Desktop\TRI_DOCUMENTS\1PYTHON and SELENIUM\Selenium recordings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\PycharmProjects\B105AFWW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB8007-CDFF-4A37-87B8-96F78B14EC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE541DF4-F324-4C3C-8D21-A1C88B83EAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tc1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\PycharmProjects\B105AFWW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE541DF4-F324-4C3C-8D21-A1C88B83EAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D2AADF-BCB9-4820-8DFE-E3148CAA17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -33,10 +34,16 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">bhanu </t>
-  </si>
-  <si>
-    <t>akshara</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pointofsale</t>
+  </si>
+  <si>
+    <t>shdsj</t>
+  </si>
+  <si>
+    <t>jdhdsjhd</t>
   </si>
 </sst>
 </file>
@@ -356,11 +363,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -376,6 +386,37 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E6EDF4-6EFA-4B56-81F2-BF0055D799C6}">
+  <dimension ref="A4:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
